--- a/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>56,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>79,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>67,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,3%</t>
+          <t>50,64%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,53; 70,13</t>
+          <t>38,85; 74,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,67; 77,09</t>
+          <t>35,24; 75,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,25; 74,34</t>
+          <t>43,3; 77,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,68; 72,77</t>
+          <t>14,42; 91,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,14; 72,63</t>
+          <t>56,95; 91,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,03; 74,61</t>
+          <t>59,24; 91,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,99; 71,66</t>
+          <t>20,83; 65,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,28; 80,06</t>
+          <t>9,35; 85,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,12; 70,15</t>
+          <t>53,99; 78,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67,14; 74,49</t>
+          <t>51,77; 79,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>64,15; 71,24</t>
+          <t>37,48; 65,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,42; 73,04</t>
+          <t>21,18; 78,57</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>33,35%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,18; 96,73</t>
+          <t>23,71; 62,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,76; 89,5</t>
+          <t>8,45; 46,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,17; 90,37</t>
+          <t>21,29; 47,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60,16%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>21,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,53; 70,74</t>
+          <t>58,53; 70,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,21; 66,41</t>
+          <t>66,67; 77,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,42; 69,25</t>
+          <t>63,25; 74,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,78; 76,27</t>
+          <t>12,39; 31,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,3; 64,03</t>
+          <t>61,14; 72,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,67; 65,1</t>
+          <t>64,03; 74,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,1; 66,63</t>
+          <t>60,99; 71,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,34; 85,44</t>
+          <t>13,58; 39,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>56,93; 65,39</t>
+          <t>62,12; 70,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,19; 64,42</t>
+          <t>67,14; 74,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>57,82; 65,93</t>
+          <t>64,15; 71,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,35; 77,66</t>
+          <t>15,02; 31,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>48,01%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,85; 74,77</t>
+          <t>57,97; 70,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 75,34</t>
+          <t>60,88; 73,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,3; 77,25</t>
+          <t>54,46; 67,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 100,0</t>
+          <t>29,51; 62,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,95; 91,48</t>
+          <t>56,53; 69,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,24; 91,96</t>
+          <t>59,81; 72,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,83; 65,95</t>
+          <t>58,49; 70,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 85,82</t>
+          <t>34,63; 70,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,99; 78,39</t>
+          <t>58,88; 68,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,77; 79,07</t>
+          <t>62,0; 71,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,48; 65,38</t>
+          <t>58,37; 67,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,49; 83,27</t>
+          <t>36,86; 61,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63,21%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>32,01%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,97; 70,45</t>
+          <t>59,53; 70,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,88; 73,03</t>
+          <t>55,21; 66,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,46; 67,42</t>
+          <t>57,42; 69,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,96; 84,18</t>
+          <t>14,54; 43,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,53; 69,75</t>
+          <t>52,3; 64,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,81; 72,44</t>
+          <t>53,67; 65,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,49; 70,88</t>
+          <t>55,1; 66,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,71; 78,25</t>
+          <t>23,63; 54,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,88; 68,41</t>
+          <t>56,93; 65,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,0; 71,09</t>
+          <t>56,19; 64,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,37; 67,65</t>
+          <t>57,82; 65,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>55,31; 77,97</t>
+          <t>22,04; 42,89</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,57%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>33,38%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,8; 74,21</t>
+          <t>24,34; 38,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,16; 75,2</t>
+          <t>28,7; 44,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>61,92; 73,12</t>
+          <t>27,93; 39,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 74,77</t>
+          <t>38,21; 73,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,24; 75,34</t>
+          <t>36,52; 73,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,3; 77,25</t>
+          <t>41,47; 76,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,95; 91,48</t>
+          <t>56,42; 91,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,24; 91,96</t>
+          <t>59,01; 92,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 65,95</t>
+          <t>25,17; 67,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,99; 78,39</t>
+          <t>54,5; 79,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,77; 79,07</t>
+          <t>52,48; 79,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,48; 65,38</t>
+          <t>39,15; 65,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,29; 70,77</t>
+          <t>56,64; 71,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,35; 69,24</t>
+          <t>56,36; 70,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,47; 74,26</t>
+          <t>58,45; 74,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,71; 62,64</t>
+          <t>24,39; 61,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,18; 67,18</t>
+          <t>51,72; 67,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,47; 71,59</t>
+          <t>56,52; 71,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,71; 79,54</t>
+          <t>65,45; 79,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 46,47</t>
+          <t>8,88; 47,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,31; 66,93</t>
+          <t>56,23; 67,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,33; 68,91</t>
+          <t>58,65; 69,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63,88; 74,28</t>
+          <t>64,61; 75,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 47,6</t>
+          <t>20,57; 47,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,53; 70,13</t>
+          <t>59,06; 70,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,67; 77,09</t>
+          <t>66,15; 77,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,25; 74,34</t>
+          <t>63,34; 73,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 31,31</t>
+          <t>12,56; 32,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,14; 72,63</t>
+          <t>61,77; 72,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,03; 74,61</t>
+          <t>63,65; 73,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,99; 71,66</t>
+          <t>61,86; 72,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 39,6</t>
+          <t>13,63; 39,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62,12; 70,15</t>
+          <t>61,99; 70,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,14; 74,49</t>
+          <t>66,67; 74,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>64,15; 71,24</t>
+          <t>64,05; 71,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,02; 31,45</t>
+          <t>15,67; 30,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,97; 70,45</t>
+          <t>57,38; 70,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,88; 73,03</t>
+          <t>60,16; 72,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,46; 67,42</t>
+          <t>54,96; 68,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,51; 62,54</t>
+          <t>28,65; 62,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,53; 69,75</t>
+          <t>56,92; 70,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,81; 72,44</t>
+          <t>59,76; 72,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,49; 70,88</t>
+          <t>58,51; 71,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,63; 70,38</t>
+          <t>35,01; 70,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,88; 68,41</t>
+          <t>59,38; 68,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,0; 71,09</t>
+          <t>62,05; 71,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58,37; 67,65</t>
+          <t>58,44; 67,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,86; 61,28</t>
+          <t>35,42; 60,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,53; 70,74</t>
+          <t>59,57; 70,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,21; 66,41</t>
+          <t>55,19; 66,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,42; 69,25</t>
+          <t>56,88; 68,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,54; 43,69</t>
+          <t>13,11; 41,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,3; 64,03</t>
+          <t>52,25; 64,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,67; 65,1</t>
+          <t>53,57; 65,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,1; 66,63</t>
+          <t>54,67; 66,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,63; 54,74</t>
+          <t>22,83; 52,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,93; 65,39</t>
+          <t>56,98; 65,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,19; 64,42</t>
+          <t>55,81; 64,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,82; 65,93</t>
+          <t>57,7; 66,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,04; 42,89</t>
+          <t>21,72; 42,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,16; 67,32</t>
+          <t>60,8; 67,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>62,72; 68,79</t>
+          <t>62,94; 68,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,87; 67,93</t>
+          <t>61,75; 68,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,34; 38,9</t>
+          <t>24,99; 39,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,51; 65,82</t>
+          <t>59,57; 65,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,23; 68,19</t>
+          <t>62,1; 67,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,1; 68,02</t>
+          <t>62,06; 68,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,7; 44,73</t>
+          <t>28,7; 45,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61,38; 65,82</t>
+          <t>61,35; 65,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,41; 67,63</t>
+          <t>63,1; 67,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62,88; 67,16</t>
+          <t>62,69; 67,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,93; 39,5</t>
+          <t>28,14; 39,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,21; 73,69</t>
+          <t>38,24; 75,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,52; 73,98</t>
+          <t>35,49; 75,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,47; 76,91</t>
+          <t>40,29; 76,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 91,49</t>
+          <t>14,42; 91,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,42; 91,47</t>
+          <t>60,2; 92,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,01; 92,16</t>
+          <t>61,42; 92,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,17; 67,95</t>
+          <t>24,45; 66,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 85,82</t>
+          <t>9,23; 88,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,5; 79,18</t>
+          <t>54,49; 79,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,48; 79,24</t>
+          <t>53,13; 78,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,15; 65,34</t>
+          <t>38,74; 68,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 78,57</t>
+          <t>21,47; 78,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,64; 71,95</t>
+          <t>56,5; 72,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,36; 70,01</t>
+          <t>55,48; 70,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,45; 74,05</t>
+          <t>58,74; 73,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 61,92</t>
+          <t>24,14; 62,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,72; 67,03</t>
+          <t>51,52; 67,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,52; 71,59</t>
+          <t>56,53; 72,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,45; 79,95</t>
+          <t>64,99; 80,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 47,24</t>
+          <t>8,29; 46,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,23; 67,37</t>
+          <t>56,27; 67,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,65; 69,06</t>
+          <t>57,75; 68,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64,61; 75,16</t>
+          <t>64,31; 75,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,57; 47,89</t>
+          <t>20,25; 46,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,06; 70,44</t>
+          <t>58,75; 70,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,15; 77,22</t>
+          <t>66,63; 77,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,34; 73,83</t>
+          <t>63,24; 73,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 32,05</t>
+          <t>12,01; 31,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,77; 72,97</t>
+          <t>61,75; 72,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,65; 73,96</t>
+          <t>63,26; 74,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,86; 72,1</t>
+          <t>61,58; 71,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 39,21</t>
+          <t>13,43; 39,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,99; 70,03</t>
+          <t>61,97; 70,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,67; 74,11</t>
+          <t>67,0; 74,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 71,38</t>
+          <t>64,24; 71,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 30,25</t>
+          <t>15,18; 31,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,38; 70,53</t>
+          <t>57,73; 70,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,16; 72,77</t>
+          <t>61,29; 73,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,96; 68,46</t>
+          <t>54,64; 67,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,65; 62,74</t>
+          <t>28,29; 62,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,92; 70,25</t>
+          <t>57,08; 70,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 72,55</t>
+          <t>60,31; 72,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,51; 71,38</t>
+          <t>58,52; 71,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,01; 70,53</t>
+          <t>35,72; 69,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,38; 68,68</t>
+          <t>59,51; 68,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,05; 71,0</t>
+          <t>62,62; 70,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58,44; 67,81</t>
+          <t>58,38; 67,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 60,71</t>
+          <t>36,43; 61,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,57; 70,31</t>
+          <t>58,46; 69,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,19; 66,3</t>
+          <t>55,03; 66,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,88; 68,58</t>
+          <t>57,01; 68,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,11; 41,44</t>
+          <t>13,51; 41,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,25; 64,01</t>
+          <t>51,56; 64,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,57; 65,13</t>
+          <t>53,22; 65,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,67; 66,61</t>
+          <t>54,27; 66,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,83; 52,72</t>
+          <t>23,29; 52,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,98; 65,4</t>
+          <t>56,98; 64,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,81; 64,35</t>
+          <t>56,19; 64,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,7; 66,11</t>
+          <t>57,28; 65,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 42,69</t>
+          <t>22,11; 42,98</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,8; 67,14</t>
+          <t>61,29; 67,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>62,94; 68,78</t>
+          <t>62,5; 68,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,75; 68,13</t>
+          <t>61,71; 67,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,99; 39,27</t>
+          <t>24,18; 38,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,57; 65,68</t>
+          <t>59,72; 66,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,1; 67,96</t>
+          <t>62,14; 68,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,06; 68,18</t>
+          <t>62,01; 68,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,7; 45,59</t>
+          <t>27,69; 44,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61,35; 65,9</t>
+          <t>61,28; 65,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,1; 67,45</t>
+          <t>63,55; 67,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62,69; 67,16</t>
+          <t>62,66; 66,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>28,14; 39,1</t>
+          <t>28,27; 38,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>66,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>64,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>38,58%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,24; 75,74</t>
+          <t>55,47; 70,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,49; 75,71</t>
+          <t>59,67; 73,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,29; 76,25</t>
+          <t>61,15; 74,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 91,56</t>
+          <t>14,26; 49,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,2; 92,35</t>
+          <t>55,53; 69,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,42; 92,35</t>
+          <t>55,02; 68,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,45; 66,18</t>
+          <t>57,95; 72,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 88,13</t>
+          <t>28,38; 65,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,49; 79,44</t>
+          <t>57,66; 67,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53,13; 78,9</t>
+          <t>58,9; 68,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,74; 68,21</t>
+          <t>61,81; 71,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,47; 78,89</t>
+          <t>26,08; 52,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,51%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>63,76%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>69,79%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,5; 72,02</t>
+          <t>61,14; 72,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,48; 70,04</t>
+          <t>64,03; 74,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,74; 73,38</t>
+          <t>60,99; 71,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,14; 62,78</t>
+          <t>13,22; 39,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,52; 67,73</t>
+          <t>58,53; 70,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,53; 72,1</t>
+          <t>66,67; 77,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,99; 80,0</t>
+          <t>63,25; 74,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 46,13</t>
+          <t>12,22; 31,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,27; 67,14</t>
+          <t>62,12; 70,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,75; 68,62</t>
+          <t>67,14; 74,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64,31; 75,01</t>
+          <t>64,15; 71,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,25; 46,87</t>
+          <t>15,12; 31,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>49,77%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,75; 70,34</t>
+          <t>56,53; 69,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,63; 77,05</t>
+          <t>59,81; 72,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,24; 73,69</t>
+          <t>58,49; 70,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 31,95</t>
+          <t>36,15; 73,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,75; 72,82</t>
+          <t>57,97; 70,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,26; 74,0</t>
+          <t>60,88; 73,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,58; 71,95</t>
+          <t>54,46; 67,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 39,33</t>
+          <t>30,27; 64,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,97; 70,08</t>
+          <t>58,88; 68,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,0; 74,25</t>
+          <t>62,0; 71,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>64,24; 71,99</t>
+          <t>58,37; 67,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,18; 31,15</t>
+          <t>38,26; 63,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63,21%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>32,38%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,73; 70,7</t>
+          <t>52,3; 64,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,29; 73,09</t>
+          <t>53,67; 65,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,64; 67,88</t>
+          <t>55,1; 66,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 62,26</t>
+          <t>24,09; 55,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,08; 70,56</t>
+          <t>59,53; 70,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,31; 72,1</t>
+          <t>55,21; 66,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,52; 71,3</t>
+          <t>57,42; 69,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 69,9</t>
+          <t>14,82; 44,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,51; 68,84</t>
+          <t>56,93; 65,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,62; 70,94</t>
+          <t>56,19; 64,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58,38; 67,66</t>
+          <t>57,82; 65,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,43; 61,05</t>
+          <t>22,25; 43,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>64,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>60,16%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>34,19%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,46; 69,94</t>
+          <t>59,51; 65,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,03; 66,17</t>
+          <t>62,23; 68,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,01; 68,94</t>
+          <t>62,1; 68,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,51; 41,93</t>
+          <t>29,25; 45,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,56; 64,14</t>
+          <t>61,16; 67,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,22; 65,06</t>
+          <t>62,72; 68,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,27; 66,45</t>
+          <t>61,87; 67,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,29; 52,7</t>
+          <t>25,06; 39,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,98; 64,99</t>
+          <t>61,38; 65,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,19; 64,61</t>
+          <t>63,41; 67,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,28; 65,99</t>
+          <t>62,88; 67,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 42,98</t>
+          <t>28,45; 40,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>64,36%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>65,83%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>64,89%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>31,19%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>62,81%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>65,22%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>65,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>36,15%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>63,6%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>65,53%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>64,98%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>33,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>61,29; 67,5</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>62,5; 68,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>61,71; 67,62</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>24,18; 38,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>59,72; 66,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>62,14; 68,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>62,01; 68,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>27,69; 44,09</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>61,28; 65,72</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>63,55; 67,55</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>62,66; 66,97</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>28,27; 38,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
